--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.63579533333333</v>
+        <v>10.09955533333333</v>
       </c>
       <c r="H2">
-        <v>43.907386</v>
+        <v>30.298666</v>
       </c>
       <c r="I2">
-        <v>0.5302013885981138</v>
+        <v>0.55913031072387</v>
       </c>
       <c r="J2">
-        <v>0.5956171121393222</v>
+        <v>0.5942757972604955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N2">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O2">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P2">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q2">
-        <v>1073.986980021072</v>
+        <v>574.6395943386265</v>
       </c>
       <c r="R2">
-        <v>9665.88282018965</v>
+        <v>5171.756349047638</v>
       </c>
       <c r="S2">
-        <v>0.5239410420715039</v>
+        <v>0.5520594814314527</v>
       </c>
       <c r="T2">
-        <v>0.5899827769245433</v>
+        <v>0.5880853071248409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.63579533333333</v>
+        <v>10.09955533333333</v>
       </c>
       <c r="H3">
-        <v>43.907386</v>
+        <v>30.298666</v>
       </c>
       <c r="I3">
-        <v>0.5302013885981138</v>
+        <v>0.55913031072387</v>
       </c>
       <c r="J3">
-        <v>0.5956171121393222</v>
+        <v>0.5942757972604955</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N3">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O3">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P3">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q3">
-        <v>2.340741776447555</v>
+        <v>1.615248816607556</v>
       </c>
       <c r="R3">
-        <v>21.066675988028</v>
+        <v>14.537239349468</v>
       </c>
       <c r="S3">
-        <v>0.001141923234067672</v>
+        <v>0.001551778598036636</v>
       </c>
       <c r="T3">
-        <v>0.001285860405220854</v>
+        <v>0.001653043239199292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.63579533333333</v>
+        <v>10.09955533333333</v>
       </c>
       <c r="H4">
-        <v>43.907386</v>
+        <v>30.298666</v>
       </c>
       <c r="I4">
-        <v>0.5302013885981138</v>
+        <v>0.55913031072387</v>
       </c>
       <c r="J4">
-        <v>0.5956171121393222</v>
+        <v>0.5942757972604955</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N4">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O4">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P4">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q4">
-        <v>2.284398843012667</v>
+        <v>1.376525627193556</v>
       </c>
       <c r="R4">
-        <v>20.559589587114</v>
+        <v>12.388730644742</v>
       </c>
       <c r="S4">
-        <v>0.001114436517928282</v>
+        <v>0.001322435890969545</v>
       </c>
       <c r="T4">
-        <v>0.001254909042731024</v>
+        <v>0.001408734281815432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.63579533333333</v>
+        <v>10.09955533333333</v>
       </c>
       <c r="H5">
-        <v>43.907386</v>
+        <v>30.298666</v>
       </c>
       <c r="I5">
-        <v>0.5302013885981138</v>
+        <v>0.55913031072387</v>
       </c>
       <c r="J5">
-        <v>0.5956171121393222</v>
+        <v>0.5942757972604955</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N5">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O5">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P5">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q5">
-        <v>7.728102420371667</v>
+        <v>3.933251625456</v>
       </c>
       <c r="R5">
-        <v>46.36861452223</v>
+        <v>23.599509752736</v>
       </c>
       <c r="S5">
-        <v>0.003770129536659185</v>
+        <v>0.003778696898162383</v>
       </c>
       <c r="T5">
-        <v>0.002830231285323218</v>
+        <v>0.002683522580001109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.63579533333333</v>
+        <v>10.09955533333333</v>
       </c>
       <c r="H6">
-        <v>43.907386</v>
+        <v>30.298666</v>
       </c>
       <c r="I6">
-        <v>0.5302013885981138</v>
+        <v>0.55913031072387</v>
       </c>
       <c r="J6">
-        <v>0.5956171121393222</v>
+        <v>0.5942757972604955</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N6">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O6">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P6">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q6">
-        <v>0.4793662045526667</v>
+        <v>0.4350114138357777</v>
       </c>
       <c r="R6">
-        <v>4.314295840974</v>
+        <v>3.915102724522</v>
       </c>
       <c r="S6">
-        <v>0.0002338572379548381</v>
+        <v>0.000417917905248667</v>
       </c>
       <c r="T6">
-        <v>0.0002633344815038744</v>
+        <v>0.0004451900346387749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.631178</v>
       </c>
       <c r="I7">
-        <v>0.03177265504370512</v>
+        <v>0.04855564838101489</v>
       </c>
       <c r="J7">
-        <v>0.03569273383490689</v>
+        <v>0.0516077309702109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N7">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O7">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P7">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q7">
-        <v>64.35935207160556</v>
+        <v>49.90249598951711</v>
       </c>
       <c r="R7">
-        <v>579.2341686444499</v>
+        <v>449.1224639056539</v>
       </c>
       <c r="S7">
-        <v>0.03139749980095866</v>
+        <v>0.04794160779995552</v>
       </c>
       <c r="T7">
-        <v>0.03535509271772101</v>
+        <v>0.05107014025733425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.631178</v>
       </c>
       <c r="I8">
-        <v>0.03177265504370512</v>
+        <v>0.04855564838101489</v>
       </c>
       <c r="J8">
-        <v>0.03569273383490689</v>
+        <v>0.0516077309702109</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,16 +930,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N8">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O8">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P8">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q8">
         <v>0.1402704380048889</v>
@@ -948,10 +948,10 @@
         <v>1.262433942044</v>
       </c>
       <c r="S8">
-        <v>6.843047525461227E-05</v>
+        <v>0.0001347585965674145</v>
       </c>
       <c r="T8">
-        <v>7.705600167789982E-05</v>
+        <v>0.0001435525578594752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>2.631178</v>
       </c>
       <c r="I9">
-        <v>0.03177265504370512</v>
+        <v>0.04855564838101489</v>
       </c>
       <c r="J9">
-        <v>0.03569273383490689</v>
+        <v>0.0516077309702109</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N9">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O9">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P9">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q9">
-        <v>0.1368940519246667</v>
+        <v>0.1195393865428889</v>
       </c>
       <c r="R9">
-        <v>1.232046467322</v>
+        <v>1.075854478886</v>
       </c>
       <c r="S9">
-        <v>6.678331632790663E-05</v>
+        <v>0.0001148421591475171</v>
       </c>
       <c r="T9">
-        <v>7.520122161758682E-05</v>
+        <v>0.0001223364305926395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.631178</v>
       </c>
       <c r="I10">
-        <v>0.03177265504370512</v>
+        <v>0.04855564838101489</v>
       </c>
       <c r="J10">
-        <v>0.03569273383490689</v>
+        <v>0.0516077309702109</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N10">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O10">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P10">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q10">
-        <v>0.4631114471316666</v>
+        <v>0.341569003248</v>
       </c>
       <c r="R10">
-        <v>2.77866868279</v>
+        <v>2.049414019488</v>
       </c>
       <c r="S10">
-        <v>0.0002259274076121917</v>
+        <v>0.0003281472572790203</v>
       </c>
       <c r="T10">
-        <v>0.0001696034077923512</v>
+        <v>0.0002330408069781737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.631178</v>
       </c>
       <c r="I11">
-        <v>0.03177265504370512</v>
+        <v>0.04855564838101489</v>
       </c>
       <c r="J11">
-        <v>0.03569273383490689</v>
+        <v>0.0516077309702109</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N11">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O11">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P11">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q11">
-        <v>0.02872632434466666</v>
+        <v>0.03777699195844444</v>
       </c>
       <c r="R11">
-        <v>0.258536919102</v>
+        <v>0.339992927626</v>
       </c>
       <c r="S11">
-        <v>1.401404355175084E-05</v>
+        <v>3.629256806541836E-05</v>
       </c>
       <c r="T11">
-        <v>1.578048609804284E-05</v>
+        <v>3.866091744635827E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.561394</v>
+        <v>2.091287666666667</v>
       </c>
       <c r="H12">
-        <v>4.684182</v>
+        <v>6.273863</v>
       </c>
       <c r="I12">
-        <v>0.05656359959224832</v>
+        <v>0.1157776044869101</v>
       </c>
       <c r="J12">
-        <v>0.06354236063096523</v>
+        <v>0.123055085535057</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N12">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O12">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P12">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q12">
-        <v>114.5764058932833</v>
+        <v>118.9890699892899</v>
       </c>
       <c r="R12">
-        <v>1031.18765303955</v>
+        <v>1070.901629903609</v>
       </c>
       <c r="S12">
-        <v>0.05589572556955636</v>
+        <v>0.114313466947752</v>
       </c>
       <c r="T12">
-        <v>0.0629412715204672</v>
+        <v>0.1217732374492717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.561394</v>
+        <v>2.091287666666667</v>
       </c>
       <c r="H13">
-        <v>4.684182</v>
+        <v>6.273863</v>
       </c>
       <c r="I13">
-        <v>0.05656359959224832</v>
+        <v>0.1157776044869101</v>
       </c>
       <c r="J13">
-        <v>0.06354236063096523</v>
+        <v>0.123055085535057</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N13">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O13">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P13">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q13">
-        <v>0.2497179061373333</v>
+        <v>0.3344652132971111</v>
       </c>
       <c r="R13">
-        <v>2.247461155236</v>
+        <v>3.010186919674</v>
       </c>
       <c r="S13">
-        <v>0.0001218240652814444</v>
+        <v>0.0003213226064280824</v>
       </c>
       <c r="T13">
-        <v>0.0001371797484060706</v>
+        <v>0.0003422912023853653</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.561394</v>
+        <v>2.091287666666667</v>
       </c>
       <c r="H14">
-        <v>4.684182</v>
+        <v>6.273863</v>
       </c>
       <c r="I14">
-        <v>0.05656359959224832</v>
+        <v>0.1157776044869101</v>
       </c>
       <c r="J14">
-        <v>0.06354236063096523</v>
+        <v>0.123055085535057</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N14">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O14">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P14">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q14">
-        <v>0.243707059702</v>
+        <v>0.2850334467201111</v>
       </c>
       <c r="R14">
-        <v>2.193363537318</v>
+        <v>2.565301020481</v>
       </c>
       <c r="S14">
-        <v>0.000118891693470942</v>
+        <v>0.0002738332310150507</v>
       </c>
       <c r="T14">
-        <v>0.0001338777569131055</v>
+        <v>0.0002917028059094553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.561394</v>
+        <v>2.091287666666667</v>
       </c>
       <c r="H15">
-        <v>4.684182</v>
+        <v>6.273863</v>
       </c>
       <c r="I15">
-        <v>0.05656359959224832</v>
+        <v>0.1157776044869101</v>
       </c>
       <c r="J15">
-        <v>0.06354236063096523</v>
+        <v>0.123055085535057</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N15">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O15">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P15">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q15">
-        <v>0.8244589703349999</v>
+        <v>0.814447799208</v>
       </c>
       <c r="R15">
-        <v>4.94675382201</v>
+        <v>4.886686795248001</v>
       </c>
       <c r="S15">
-        <v>0.0004022096171538723</v>
+        <v>0.0007824445689323664</v>
       </c>
       <c r="T15">
-        <v>0.0003019382306782708</v>
+        <v>0.0005556697784758409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.561394</v>
+        <v>2.091287666666667</v>
       </c>
       <c r="H16">
-        <v>4.684182</v>
+        <v>6.273863</v>
       </c>
       <c r="I16">
-        <v>0.05656359959224832</v>
+        <v>0.1157776044869101</v>
       </c>
       <c r="J16">
-        <v>0.06354236063096523</v>
+        <v>0.123055085535057</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N16">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O16">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P16">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q16">
-        <v>0.05114033768199999</v>
+        <v>0.09007663947455555</v>
       </c>
       <c r="R16">
-        <v>0.460263039138</v>
+        <v>0.8106897552710001</v>
       </c>
       <c r="S16">
-        <v>2.494864678570866E-05</v>
+        <v>8.65371327825825E-05</v>
       </c>
       <c r="T16">
-        <v>2.809337450058587E-05</v>
+        <v>9.21842990146473E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.095188500000001</v>
+        <v>3.204734</v>
       </c>
       <c r="H17">
-        <v>18.190377</v>
+        <v>6.409468</v>
       </c>
       <c r="I17">
-        <v>0.3294854473182436</v>
+        <v>0.1774200801983181</v>
       </c>
       <c r="J17">
-        <v>0.2467580242072609</v>
+        <v>0.1257148319901488</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N17">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O17">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P17">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q17">
-        <v>667.4125872469875</v>
+        <v>182.3413986995207</v>
       </c>
       <c r="R17">
-        <v>4004.475523481925</v>
+        <v>1094.048392197124</v>
       </c>
       <c r="S17">
-        <v>0.325595051857113</v>
+        <v>0.1751764044825352</v>
       </c>
       <c r="T17">
-        <v>0.2444237772607174</v>
+        <v>0.1244052776873688</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.095188500000001</v>
+        <v>3.204734</v>
       </c>
       <c r="H18">
-        <v>18.190377</v>
+        <v>6.409468</v>
       </c>
       <c r="I18">
-        <v>0.3294854473182436</v>
+        <v>0.1774200801983181</v>
       </c>
       <c r="J18">
-        <v>0.2467580242072609</v>
+        <v>0.1257148319901488</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N18">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O18">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P18">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q18">
-        <v>1.454617750641</v>
+        <v>0.5125416545773334</v>
       </c>
       <c r="R18">
-        <v>8.727706503845999</v>
+        <v>3.075249927464</v>
       </c>
       <c r="S18">
-        <v>0.0007096305209133904</v>
+        <v>0.0004924016423957748</v>
       </c>
       <c r="T18">
-        <v>0.0005327186988617382</v>
+        <v>0.0003496895785532013</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.095188500000001</v>
+        <v>3.204734</v>
       </c>
       <c r="H19">
-        <v>18.190377</v>
+        <v>6.409468</v>
       </c>
       <c r="I19">
-        <v>0.3294854473182436</v>
+        <v>0.1774200801983181</v>
       </c>
       <c r="J19">
-        <v>0.2467580242072609</v>
+        <v>0.1257148319901488</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N19">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O19">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P19">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q19">
-        <v>1.4196043066455</v>
+        <v>0.4367913570193334</v>
       </c>
       <c r="R19">
-        <v>8.517625839873</v>
+        <v>2.620748142116</v>
       </c>
       <c r="S19">
-        <v>0.0006925493265648756</v>
+        <v>0.0004196279066488005</v>
       </c>
       <c r="T19">
-        <v>0.0005198958687266518</v>
+        <v>0.0002980077505656188</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.095188500000001</v>
+        <v>3.204734</v>
       </c>
       <c r="H20">
-        <v>18.190377</v>
+        <v>6.409468</v>
       </c>
       <c r="I20">
-        <v>0.3294854473182436</v>
+        <v>0.1774200801983181</v>
       </c>
       <c r="J20">
-        <v>0.2467580242072609</v>
+        <v>0.1257148319901488</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N20">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O20">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P20">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q20">
-        <v>4.802509645683751</v>
+        <v>1.248077246832</v>
       </c>
       <c r="R20">
-        <v>19.210038582735</v>
+        <v>4.992308987328</v>
       </c>
       <c r="S20">
-        <v>0.002342888652401189</v>
+        <v>0.001199034811489938</v>
       </c>
       <c r="T20">
-        <v>0.001172535620253592</v>
+        <v>0.0005676801778597957</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.095188500000001</v>
+        <v>3.204734</v>
       </c>
       <c r="H21">
-        <v>18.190377</v>
+        <v>6.409468</v>
       </c>
       <c r="I21">
-        <v>0.3294854473182436</v>
+        <v>0.1774200801983181</v>
       </c>
       <c r="J21">
-        <v>0.2467580242072609</v>
+        <v>0.1257148319901488</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N21">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O21">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P21">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q21">
-        <v>0.2978947089405</v>
+        <v>0.1380353710926667</v>
       </c>
       <c r="R21">
-        <v>1.787368253643</v>
+        <v>0.828212226556</v>
       </c>
       <c r="S21">
-        <v>0.0001453269612512533</v>
+        <v>0.0001326113552483646</v>
       </c>
       <c r="T21">
-        <v>0.0001090967587014859</v>
+        <v>9.417679580137682E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.434782</v>
+        <v>1.790336</v>
       </c>
       <c r="H22">
-        <v>4.304346</v>
+        <v>5.371008</v>
       </c>
       <c r="I22">
-        <v>0.0519769094476892</v>
+        <v>0.09911635620988699</v>
       </c>
       <c r="J22">
-        <v>0.05838976918754495</v>
+        <v>0.1053465542440878</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>73.38084166666667</v>
+        <v>56.89751433333333</v>
       </c>
       <c r="N22">
-        <v>220.142525</v>
+        <v>170.692543</v>
       </c>
       <c r="O22">
-        <v>0.9881925120129115</v>
+        <v>0.9873538794860484</v>
       </c>
       <c r="P22">
-        <v>0.9905403402623177</v>
+        <v>0.9895831360385335</v>
       </c>
       <c r="Q22">
-        <v>105.2855107681833</v>
+        <v>101.8656682214827</v>
       </c>
       <c r="R22">
-        <v>947.56959691365</v>
+        <v>916.791013993344</v>
       </c>
       <c r="S22">
-        <v>0.05136319271377962</v>
+        <v>0.097862918824353</v>
       </c>
       <c r="T22">
-        <v>0.05783742183886897</v>
+        <v>0.1042491735197179</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.434782</v>
+        <v>1.790336</v>
       </c>
       <c r="H23">
-        <v>4.304346</v>
+        <v>5.371008</v>
       </c>
       <c r="I23">
-        <v>0.0519769094476892</v>
+        <v>0.09911635620988699</v>
       </c>
       <c r="J23">
-        <v>0.05838976918754495</v>
+        <v>0.1053465542440878</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1860,28 +1860,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.1599326666666666</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N23">
-        <v>0.4797979999999999</v>
+        <v>0.479798</v>
       </c>
       <c r="O23">
-        <v>0.002153753759655345</v>
+        <v>0.002775343364997773</v>
       </c>
       <c r="P23">
-        <v>0.00215887082324135</v>
+        <v>0.002781609560442347</v>
       </c>
       <c r="Q23">
-        <v>0.2294685113453333</v>
+        <v>0.2863332107093333</v>
       </c>
       <c r="R23">
-        <v>2.065216602108</v>
+        <v>2.576998896384</v>
       </c>
       <c r="S23">
-        <v>0.000111945464138226</v>
+        <v>0.0002750819215698657</v>
       </c>
       <c r="T23">
-        <v>0.0001260559690747876</v>
+        <v>0.0002930329824450129</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.434782</v>
+        <v>1.790336</v>
       </c>
       <c r="H24">
-        <v>4.304346</v>
+        <v>5.371008</v>
       </c>
       <c r="I24">
-        <v>0.0519769094476892</v>
+        <v>0.09911635620988699</v>
       </c>
       <c r="J24">
-        <v>0.05838976918754495</v>
+        <v>0.1053465542440878</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.156083</v>
+        <v>0.1362956666666667</v>
       </c>
       <c r="N24">
-        <v>0.468249</v>
+        <v>0.408887</v>
       </c>
       <c r="O24">
-        <v>0.002101911729946469</v>
+        <v>0.002365165804117242</v>
       </c>
       <c r="P24">
-        <v>0.002106905623016225</v>
+        <v>0.002370505896941191</v>
       </c>
       <c r="Q24">
-        <v>0.223945078906</v>
+        <v>0.2440150386773333</v>
       </c>
       <c r="R24">
-        <v>2.015505710154</v>
+        <v>2.196135348096</v>
       </c>
       <c r="S24">
-        <v>0.0001092508756544634</v>
+        <v>0.0002344266163363283</v>
       </c>
       <c r="T24">
-        <v>0.000123021733027858</v>
+        <v>0.0002497246280580452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.434782</v>
+        <v>1.790336</v>
       </c>
       <c r="H25">
-        <v>4.304346</v>
+        <v>5.371008</v>
       </c>
       <c r="I25">
-        <v>0.0519769094476892</v>
+        <v>0.09911635620988699</v>
       </c>
       <c r="J25">
-        <v>0.05838976918754495</v>
+        <v>0.1053465542440878</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5280275</v>
+        <v>0.389448</v>
       </c>
       <c r="N25">
-        <v>1.056055</v>
+        <v>0.778896</v>
       </c>
       <c r="O25">
-        <v>0.007110750023925149</v>
+        <v>0.006758168580183656</v>
       </c>
       <c r="P25">
-        <v>0.004751762881958958</v>
+        <v>0.004515618156370602</v>
       </c>
       <c r="Q25">
-        <v>0.757604352505</v>
+        <v>0.697242774528</v>
       </c>
       <c r="R25">
-        <v>4.545626115029999</v>
+        <v>4.183456647168</v>
       </c>
       <c r="S25">
-        <v>0.0003695948100987113</v>
+        <v>0.0006698450443199495</v>
       </c>
       <c r="T25">
-        <v>0.0002774543379115269</v>
+        <v>0.0004757048130556835</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.434782</v>
+        <v>1.790336</v>
       </c>
       <c r="H26">
-        <v>4.304346</v>
+        <v>5.371008</v>
       </c>
       <c r="I26">
-        <v>0.0519769094476892</v>
+        <v>0.09911635620988699</v>
       </c>
       <c r="J26">
-        <v>0.05838976918754495</v>
+        <v>0.1053465542440878</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.032753</v>
+        <v>0.04307233333333333</v>
       </c>
       <c r="N26">
-        <v>0.098259</v>
+        <v>0.129217</v>
       </c>
       <c r="O26">
-        <v>0.0004410724735617376</v>
+        <v>0.0007474427646528689</v>
       </c>
       <c r="P26">
-        <v>0.0004421204094657999</v>
+        <v>0.0007491303477123261</v>
       </c>
       <c r="Q26">
-        <v>0.046993414846</v>
+        <v>0.07711394897066666</v>
       </c>
       <c r="R26">
-        <v>0.422940733614</v>
+        <v>0.694025540736</v>
       </c>
       <c r="S26">
-        <v>2.292558401818672E-05</v>
+        <v>7.408380330783647E-05</v>
       </c>
       <c r="T26">
-        <v>2.581530866181092E-05</v>
+        <v>7.891830081116893E-05</v>
       </c>
     </row>
   </sheetData>
